--- a/data/objects.xlsx
+++ b/data/objects.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="1603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="1605">
   <si>
     <t xml:space="preserve">Datum des Updates</t>
   </si>
@@ -614,6 +614,9 @@
 Themen: Geschlechtergeschichte, Wissenschaftsgeschichte</t>
   </si>
   <si>
+    <t xml:space="preserve">Dio-nordost-europa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Naturgeschichte</t>
   </si>
   <si>
@@ -648,6 +651,9 @@
   <si>
     <t xml:space="preserve">Fachbezug: Biologie, Geografie, Naturwissenschaft;
 Themen: Bildung, Didaktik, Vermittlung, Wissenschaftsgeschichte, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwei-darwinfinken</t>
   </si>
   <si>
     <t xml:space="preserve">Zwei Darwinfinken</t>
@@ -5757,10 +5763,10 @@
   </sheetPr>
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G123" activeCellId="0" sqref="G123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6470,80 +6476,86 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="96.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>43839</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>43839</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6551,43 +6563,43 @@
         <v>43839</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6595,43 +6607,43 @@
         <v>43839</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="90.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6639,40 +6651,40 @@
         <v>43839</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6680,7 +6692,7 @@
         <v>43909</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>16</v>
@@ -6689,37 +6701,37 @@
         <v>17</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6727,7 +6739,7 @@
         <v>43909</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>16</v>
@@ -6736,34 +6748,34 @@
         <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="144.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6771,7 +6783,7 @@
         <v>43909</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
@@ -6780,34 +6792,34 @@
         <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="140.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6815,7 +6827,7 @@
         <v>43909</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>16</v>
@@ -6824,37 +6836,37 @@
         <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6862,7 +6874,7 @@
         <v>43909</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
@@ -6871,34 +6883,34 @@
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6906,44 +6918,44 @@
         <v>43909</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="72.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6951,46 +6963,46 @@
         <v>43909</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6998,7 +7010,7 @@
         <v>43909</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
@@ -7007,35 +7019,35 @@
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7043,7 +7055,7 @@
         <v>43909</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>16</v>
@@ -7052,37 +7064,37 @@
         <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7090,7 +7102,7 @@
         <v>43909</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
@@ -7099,37 +7111,37 @@
         <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="159.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7137,43 +7149,43 @@
         <v>43909</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="92.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7181,46 +7193,46 @@
         <v>43909</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7228,46 +7240,46 @@
         <v>43909</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7275,7 +7287,7 @@
         <v>43909</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>16</v>
@@ -7284,37 +7296,37 @@
         <v>55</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="128.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7322,7 +7334,7 @@
         <v>43910</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>16</v>
@@ -7331,34 +7343,34 @@
         <v>55</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7366,7 +7378,7 @@
         <v>43910</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -7375,34 +7387,34 @@
         <v>55</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7410,7 +7422,7 @@
         <v>43910</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
@@ -7419,37 +7431,37 @@
         <v>55</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7457,7 +7469,7 @@
         <v>43910</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
@@ -7466,37 +7478,37 @@
         <v>55</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7504,7 +7516,7 @@
         <v>43910</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>16</v>
@@ -7513,34 +7525,34 @@
         <v>55</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7548,7 +7560,7 @@
         <v>43910</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>16</v>
@@ -7557,34 +7569,34 @@
         <v>55</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7592,7 +7604,7 @@
         <v>43910</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>16</v>
@@ -7601,34 +7613,34 @@
         <v>55</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7636,7 +7648,7 @@
         <v>43910</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
@@ -7645,34 +7657,34 @@
         <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7680,7 +7692,7 @@
         <v>43910</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>16</v>
@@ -7689,37 +7701,37 @@
         <v>67</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7727,43 +7739,43 @@
         <v>43910</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7771,46 +7783,46 @@
         <v>43910</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7818,43 +7830,43 @@
         <v>43910</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7862,43 +7874,43 @@
         <v>43910</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7906,40 +7918,40 @@
         <v>43910</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7947,43 +7959,43 @@
         <v>43910</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7991,43 +8003,43 @@
         <v>43910</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8035,43 +8047,43 @@
         <v>43910</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8079,43 +8091,43 @@
         <v>43910</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8123,43 +8135,43 @@
         <v>43910</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8167,43 +8179,43 @@
         <v>43910</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8211,43 +8223,43 @@
         <v>43910</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8255,43 +8267,43 @@
         <v>43910</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>1837</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8299,46 +8311,46 @@
         <v>43910</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8346,43 +8358,43 @@
         <v>43910</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8390,43 +8402,43 @@
         <v>43910</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8434,43 +8446,43 @@
         <v>43910</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>1899</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8478,43 +8490,43 @@
         <v>43910</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8522,43 +8534,43 @@
         <v>43910</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8566,43 +8578,43 @@
         <v>43910</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F63" s="1" t="n">
         <v>1899</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8610,43 +8622,43 @@
         <v>43910</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F64" s="1" t="n">
         <v>1901</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8654,43 +8666,43 @@
         <v>43910</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8698,43 +8710,43 @@
         <v>43910</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8742,43 +8754,43 @@
         <v>43913</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="L67" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8786,43 +8798,43 @@
         <v>43913</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8830,43 +8842,43 @@
         <v>43913</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="312" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8874,46 +8886,46 @@
         <v>43913</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="312" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8921,46 +8933,46 @@
         <v>43913</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="L71" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="312" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8968,46 +8980,46 @@
         <v>43913</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="312" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9015,46 +9027,46 @@
         <v>43913</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F73" s="7" t="n">
         <v>1901</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="312" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9062,46 +9074,46 @@
         <v>43913</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="L74" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="312" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9109,46 +9121,46 @@
         <v>43913</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L75" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="312" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9156,46 +9168,46 @@
         <v>43913</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F76" s="7" t="n">
         <v>1902</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="L76" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="312" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9203,46 +9215,46 @@
         <v>43913</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="L77" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="312" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9250,46 +9262,46 @@
         <v>43913</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="L78" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="312" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9297,46 +9309,46 @@
         <v>43913</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9344,7 +9356,7 @@
         <v>43913</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>16</v>
@@ -9353,13 +9365,13 @@
         <v>134</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>150</v>
@@ -9368,19 +9380,19 @@
         <v>22</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9388,7 +9400,7 @@
         <v>43913</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>16</v>
@@ -9397,13 +9409,13 @@
         <v>134</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>138</v>
@@ -9412,19 +9424,19 @@
         <v>139</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9432,7 +9444,7 @@
         <v>43913</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>16</v>
@@ -9441,34 +9453,34 @@
         <v>134</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F82" s="7" t="n">
         <v>1447</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9485,34 +9497,34 @@
         <v>134</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>140</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="173.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9520,7 +9532,7 @@
         <v>43913</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>16</v>
@@ -9529,34 +9541,34 @@
         <v>134</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F84" s="7" t="n">
         <v>1525</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="L84" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9564,7 +9576,7 @@
         <v>43913</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>16</v>
@@ -9573,34 +9585,34 @@
         <v>134</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F85" s="7" t="n">
         <v>1529</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="L85" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9608,43 +9620,43 @@
         <v>43913</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="F86" s="7" t="n">
         <v>1568</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9652,43 +9664,43 @@
         <v>43913</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F87" s="7" t="n">
         <v>1596</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9696,43 +9708,43 @@
         <v>43913</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F88" s="7" t="n">
         <v>1603</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9740,43 +9752,43 @@
         <v>43913</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="F89" s="7" t="n">
         <v>1612</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="219" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9784,43 +9796,43 @@
         <v>43913</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F90" s="7" t="n">
         <v>1622</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9828,43 +9840,43 @@
         <v>43913</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9872,43 +9884,43 @@
         <v>43913</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9916,43 +9928,43 @@
         <v>43913</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="F93" s="7" t="n">
         <v>1641</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9960,43 +9972,43 @@
         <v>43913</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10004,43 +10016,43 @@
         <v>43913</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10048,43 +10060,43 @@
         <v>43913</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="O96" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10092,43 +10104,43 @@
         <v>43913</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="171" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10136,43 +10148,43 @@
         <v>43913</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10180,43 +10192,43 @@
         <v>43913</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="L99" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10224,7 +10236,7 @@
         <v>43913</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>16</v>
@@ -10233,34 +10245,34 @@
         <v>147</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F100" s="7" t="n">
         <v>1832</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="J100" s="7" t="s">
         <v>152</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="L100" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M100" s="8" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10268,7 +10280,7 @@
         <v>43913</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>16</v>
@@ -10277,34 +10289,34 @@
         <v>147</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F101" s="7" t="n">
         <v>1885</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="L101" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="O101" s="5" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10312,7 +10324,7 @@
         <v>43913</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>16</v>
@@ -10321,34 +10333,34 @@
         <v>147</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F102" s="7" t="n">
         <v>1872</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="L102" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10356,7 +10368,7 @@
         <v>43913</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>16</v>
@@ -10365,34 +10377,34 @@
         <v>147</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="F103" s="7" t="n">
         <v>1893</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>152</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="L103" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="O103" s="5" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="134.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10400,7 +10412,7 @@
         <v>43913</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>16</v>
@@ -10409,34 +10421,34 @@
         <v>147</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F104" s="7" t="n">
         <v>1894</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="J104" s="7" t="s">
         <v>152</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="L104" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10444,7 +10456,7 @@
         <v>43913</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>16</v>
@@ -10453,34 +10465,34 @@
         <v>147</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F105" s="7" t="n">
         <v>1889</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="J105" s="7" t="s">
         <v>152</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="L105" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10497,37 +10509,37 @@
         <v>147</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F106" s="7" t="n">
         <v>1904</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="J106" s="7" t="s">
         <v>152</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="L106" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10535,7 +10547,7 @@
         <v>43913</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>16</v>
@@ -10544,34 +10556,34 @@
         <v>147</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F107" s="7" t="n">
         <v>1910</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>152</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="O107" s="5" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10579,7 +10591,7 @@
         <v>43913</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>16</v>
@@ -10588,34 +10600,34 @@
         <v>147</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F108" s="7" t="n">
         <v>1912</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="J108" s="7" t="s">
         <v>152</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="O108" s="5" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="156.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10623,7 +10635,7 @@
         <v>43913</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>16</v>
@@ -10632,34 +10644,34 @@
         <v>147</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="L109" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="O109" s="5" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10667,7 +10679,7 @@
         <v>43913</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>16</v>
@@ -10676,34 +10688,34 @@
         <v>147</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="L110" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10711,7 +10723,7 @@
         <v>43913</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>16</v>
@@ -10720,34 +10732,34 @@
         <v>147</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F111" s="7" t="n">
         <v>1920</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="L111" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10755,7 +10767,7 @@
         <v>43913</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>16</v>
@@ -10764,34 +10776,34 @@
         <v>147</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="J112" s="7" t="s">
         <v>152</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="L112" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10799,7 +10811,7 @@
         <v>43913</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>16</v>
@@ -10808,34 +10820,34 @@
         <v>147</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F113" s="7" t="n">
         <v>1950</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>152</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="O113" s="5" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10843,7 +10855,7 @@
         <v>43913</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>16</v>
@@ -10852,37 +10864,37 @@
         <v>166</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="L114" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M114" s="8" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="O114" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10890,7 +10902,7 @@
         <v>43913</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>16</v>
@@ -10899,34 +10911,34 @@
         <v>166</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10934,7 +10946,7 @@
         <v>43913</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>16</v>
@@ -10943,34 +10955,34 @@
         <v>166</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="K116" s="7" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="M116" s="8" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10978,7 +10990,7 @@
         <v>43914</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>16</v>
@@ -10987,42 +10999,42 @@
         <v>166</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="F117" s="10" t="n">
         <v>1520</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="143.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="10" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>16</v>
@@ -11031,42 +11043,42 @@
         <v>166</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="10" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>16</v>
@@ -11075,42 +11087,42 @@
         <v>166</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F119" s="10" t="n">
         <v>1525</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="10" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>16</v>
@@ -11119,42 +11131,42 @@
         <v>166</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F120" s="10" t="n">
         <v>1514</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="L120" s="7" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="153" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="10" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>16</v>
@@ -11163,39 +11175,39 @@
         <v>166</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="L121" s="7" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="10" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>16</v>
@@ -11204,39 +11216,39 @@
         <v>166</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="M122" s="7" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="10" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>16</v>
@@ -11245,42 +11257,42 @@
         <v>166</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="F123" s="10" t="n">
         <v>1569</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="K123" s="10" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="L123" s="7" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="M123" s="7" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="168.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="10" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>16</v>
@@ -11289,42 +11301,42 @@
         <v>166</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="F124" s="10" t="n">
         <v>1594</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="K124" s="10" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="L124" s="7" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="10" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>16</v>
@@ -11333,42 +11345,42 @@
         <v>166</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="L125" s="7" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="195.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="10" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>16</v>
@@ -11377,42 +11389,42 @@
         <v>166</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="M126" s="8" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="10" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>16</v>
@@ -11421,42 +11433,42 @@
         <v>166</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="M127" s="7" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="10" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>16</v>
@@ -11465,42 +11477,42 @@
         <v>166</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="K128" s="10" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="10" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>16</v>
@@ -11509,39 +11521,39 @@
         <v>166</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="K129" s="10" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="10" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>16</v>
@@ -11550,39 +11562,39 @@
         <v>166</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="K130" s="10" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="M130" s="7" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="10" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>16</v>
@@ -11591,42 +11603,42 @@
         <v>166</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="K131" s="10" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="M131" s="7" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="10" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>16</v>
@@ -11635,42 +11647,42 @@
         <v>166</v>
       </c>
       <c r="E132" s="10" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K132" s="10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L132" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M132" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="O132" s="1" t="s">
         <v>1204</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I132" s="10" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>1207</v>
-      </c>
-      <c r="K132" s="10" t="s">
-        <v>1208</v>
-      </c>
-      <c r="L132" s="7" t="s">
-        <v>1148</v>
-      </c>
-      <c r="M132" s="7" t="s">
-        <v>1209</v>
-      </c>
-      <c r="N132" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="O132" s="1" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="10" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>16</v>
@@ -11679,39 +11691,39 @@
         <v>166</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="J133" s="10" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="K133" s="10" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="L133" s="7" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="M133" s="7" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="10" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>16</v>
@@ -11720,42 +11732,42 @@
         <v>166</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="F134" s="10" t="n">
         <v>1729</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="K134" s="10" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="L134" s="10" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="M134" s="7" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="10" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C135" s="10" t="s">
         <v>16</v>
@@ -11764,42 +11776,42 @@
         <v>166</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="K135" s="10" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L135" s="10" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="M135" s="7" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="10" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>16</v>
@@ -11808,42 +11820,42 @@
         <v>166</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="F136" s="10" t="n">
         <v>1747</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="K136" s="10" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="M136" s="7" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="189.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="10" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>16</v>
@@ -11852,42 +11864,42 @@
         <v>166</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="J137" s="10" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="K137" s="10" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="M137" s="7" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="10" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>16</v>
@@ -11896,39 +11908,39 @@
         <v>166</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="J138" s="10" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="K138" s="10" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="L138" s="10" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="M138" s="7" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="10" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>16</v>
@@ -11937,42 +11949,42 @@
         <v>166</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="F139" s="10" t="n">
         <v>1840</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="J139" s="10" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="K139" s="10" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="M139" s="7" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="10" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>16</v>
@@ -11981,42 +11993,42 @@
         <v>166</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="F140" s="10" t="n">
         <v>1852</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="K140" s="10" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="M140" s="7" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="10" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>16</v>
@@ -12025,39 +12037,39 @@
         <v>166</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="F141" s="10" t="n">
         <v>1864</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="J141" s="10" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="K141" s="10" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="L141" s="10" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="M141" s="7" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="10" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>16</v>
@@ -12066,42 +12078,42 @@
         <v>166</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="K142" s="10" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="M142" s="7" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="173.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="10" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="C143" s="10" t="s">
         <v>16</v>
@@ -12110,39 +12122,39 @@
         <v>166</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="F143" s="10" t="n">
         <v>1910</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="K143" s="10" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="M143" s="7" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="10" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>16</v>
@@ -12151,39 +12163,39 @@
         <v>166</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="F144" s="10" t="n">
         <v>1918</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="J144" s="10" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="K144" s="10" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="L144" s="10" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="M144" s="7" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="10" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>16</v>
@@ -12192,42 +12204,42 @@
         <v>166</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="J145" s="10" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="K145" s="10" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="L145" s="8" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="M145" s="7" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="10" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C146" s="10" t="s">
         <v>16</v>
@@ -12236,42 +12248,42 @@
         <v>166</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="K146" s="10" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="L146" s="10" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="M146" s="7" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="10" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C147" s="10" t="s">
         <v>16</v>
@@ -12280,39 +12292,39 @@
         <v>166</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="J147" s="10" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="K147" s="10" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="L147" s="10" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="M147" s="7" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="10" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="C148" s="10" t="s">
         <v>16</v>
@@ -12321,42 +12333,42 @@
         <v>166</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F148" s="10" t="n">
         <v>1964</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="J148" s="10" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="K148" s="10" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="M148" s="7" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="152.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="10" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="C149" s="10" t="s">
         <v>16</v>
@@ -12365,42 +12377,42 @@
         <v>166</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="F149" s="10" t="n">
         <v>2004</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="J149" s="10" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="K149" s="10" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="L149" s="11" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="M149" s="7" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="10" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C150" s="10" t="s">
         <v>16</v>
@@ -12409,42 +12421,42 @@
         <v>166</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="F150" s="10" t="n">
         <v>1967</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="J150" s="10" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="K150" s="10" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="L150" s="10" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="M150" s="7" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="116.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="10" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C151" s="10" t="s">
         <v>16</v>
@@ -12453,42 +12465,42 @@
         <v>166</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="F151" s="10" t="n">
         <v>2004</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="J151" s="10" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="K151" s="10" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="M151" s="7" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="10" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>16</v>
@@ -12497,403 +12509,403 @@
         <v>166</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F152" s="10" t="n">
         <v>2005</v>
       </c>
       <c r="G152" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="J152" s="10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K152" s="10" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L152" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="M152" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="O152" s="1" t="s">
         <v>1392</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I152" s="10" t="s">
-        <v>1393</v>
-      </c>
-      <c r="J152" s="10" t="s">
-        <v>1394</v>
-      </c>
-      <c r="K152" s="10" t="s">
-        <v>1395</v>
-      </c>
-      <c r="L152" s="10" t="s">
-        <v>1368</v>
-      </c>
-      <c r="M152" s="7" t="s">
-        <v>1396</v>
-      </c>
-      <c r="O152" s="1" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="10" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I153" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K153" s="11" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="L153" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M153" s="8" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="O153" s="5" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="10" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I154" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J154" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K154" s="11" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="L154" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M154" s="8" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="O154" s="5" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="10" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="J155" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K155" s="11" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="L155" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M155" s="8" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="O155" s="5" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="10" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I156" s="11" t="s">
         <v>22</v>
       </c>
       <c r="J156" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K156" s="11" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="L156" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M156" s="8" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="O156" s="5" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="10" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K157" s="11" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="L157" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M157" s="8" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="O157" s="5" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="10" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="K158" s="10" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="L158" s="10" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="M158" s="8" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="O158" s="5" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="10" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="K159" s="10" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="L159" s="11" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="M159" s="8" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="O159" s="5" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="10" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="I160" s="11" t="s">
         <v>22</v>
       </c>
       <c r="J160" s="11" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="K160" s="11" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="L160" s="11" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="M160" s="8" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="O160" s="5" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="1" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I161" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="M161" s="12" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="N161" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -12933,22 +12945,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12959,14 +12971,14 @@
         <v>11</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="19" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12977,14 +12989,14 @@
         <v>11</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12995,14 +13007,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13010,17 +13022,17 @@
         <v>43909</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="22" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13031,14 +13043,14 @@
         <v>12</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="22" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13046,15 +13058,15 @@
         <v>43909</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="72.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13062,17 +13074,17 @@
         <v>43910</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="30" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13083,10 +13095,10 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="33" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13097,12 +13109,12 @@
         <v>12</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
       <c r="F10" s="40" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13112,7 +13124,7 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="44" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13123,12 +13135,12 @@
         <v>5</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
       <c r="F12" s="46" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13137,14 +13149,14 @@
         <v>12</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="49" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13236,17 +13248,17 @@
         <v>7</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="54" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13256,47 +13268,47 @@
     </row>
     <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="56" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="55" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="55" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="55" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13306,12 +13318,12 @@
     </row>
     <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="55" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="55" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13321,22 +13333,22 @@
     </row>
     <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="55" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="55" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="55" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13351,42 +13363,42 @@
     </row>
     <row r="24" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="55" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="55" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="55" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="55" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="55" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="55" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="B31" s="55"/>
     </row>
@@ -13397,7 +13409,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="55" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="B33" s="55"/>
     </row>
@@ -13448,423 +13460,423 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="57" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="56" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="56" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="59"/>
       <c r="C40" s="0" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="D40" s="59"/>
     </row>
     <row r="41" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="56" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="56" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="56" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="56" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="56" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="0" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="56" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
     </row>
   </sheetData>
